--- a/data/trans_orig/P14B34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA4AD28-FA58-4536-8C6E-92CCE6055E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1CA971-3171-4510-B10C-D2F931D26C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A995790D-6085-401C-BF0E-75BBD6A3532C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F44957FD-96F1-4E1B-AD92-00B4B57AFEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -103,19 +103,19 @@
     <t>25,68%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -124,19 +124,19 @@
     <t>55,64%</t>
   </si>
   <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -145,19 +145,19 @@
     <t>38,55%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
   </si>
   <si>
     <t>61,45%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -166,37 +166,37 @@
     <t>53,24%</t>
   </si>
   <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>46,76%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -208,109 +208,109 @@
     <t>25,93%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>59,64%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
   </si>
   <si>
     <t>56,97%</t>
   </si>
   <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>30,42%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
   </si>
   <si>
     <t>69,58%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2023 (Tasa respuesta: 3,17%)</t>
@@ -827,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6279DD-0094-42F0-82BE-6B3D99847A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B82400A-35C8-4B15-9609-AB6C05BE808C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1854,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0501B8BB-B1AA-4BDE-B3AC-1C2605E8635A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A34E7F3-6D21-4D9B-903C-01BB4ABC5A89}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2881,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC376E3D-ECEF-41BB-AE6F-BAADCC6C532E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F496479-69AD-4355-9276-81516EB86D5D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1CA971-3171-4510-B10C-D2F931D26C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3C7586-9898-4CB6-9E66-6915E08C42AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F44957FD-96F1-4E1B-AD92-00B4B57AFEB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{083447E1-74B6-46A6-B285-4173796AFE43}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -97,67 +97,67 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>55,64%</t>
   </si>
   <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>38,55%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
   </si>
   <si>
     <t>61,45%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -166,151 +166,151 @@
     <t>53,24%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>46,76%</t>
   </si>
   <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo trastornos de próstata le limita en 2015 (Tasa respuesta: 1,74%)</t>
+    <t>Población cuyo trastornos de próstata le limita en 2016 (Tasa respuesta: 1,74%)</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>59,64%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
   </si>
   <si>
     <t>56,97%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
   </si>
   <si>
     <t>30,42%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>69,58%</t>
   </si>
   <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2023 (Tasa respuesta: 3,17%)</t>
@@ -331,91 +331,91 @@
     <t>27,95%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>81,28%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B82400A-35C8-4B15-9609-AB6C05BE808C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2606BE-49D5-4847-890F-0B4642A5E8CA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1854,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A34E7F3-6D21-4D9B-903C-01BB4ABC5A89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1B57CF-2AA1-4CE7-840D-BE9FBD060D34}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2881,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F496479-69AD-4355-9276-81516EB86D5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD699A9B-F2E6-4EF6-BDB4-186065423929}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
